--- a/excel_data/AVG FPS for different boids.xlsx
+++ b/excel_data/AVG FPS for different boids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JiaruiYan\MasterDegreeProjects\CIS565\Proj1\Project1-CUDA-Flocking\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED59C5-77AD-4565-915A-11C6FE59FBAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE65C84-14D9-4A92-B23C-546C6892043E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="195" windowWidth="13200" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="1560" windowWidth="11460" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>AVG FPS for the first 5000 Frames with visualization</t>
   </si>
@@ -119,6 +119,12 @@
   <si>
     <t>Coherent with block size 512</t>
   </si>
+  <si>
+    <t>Uniform 50000 boids with grid width that is equal to searching radius</t>
+  </si>
+  <si>
+    <t>Uniform 50000 boids with grid width that is equal to 2 x searching radius</t>
+  </si>
 </sst>
 </file>
 
@@ -176,6 +182,3161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>AVG FPS for the first 5000 Frames with visualization</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG FPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Naïve with 5000 boids</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naïve with 50000 boids</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve with 100000 boids</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Uniform with 5000 boids</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Uniform with 50000 boids</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Uniform with 100000 boids </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Coherent with 5000 boids</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Coherent with 50000 boids</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Coherent with 100000 boids</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>658.01400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.603400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.732100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>963.75800000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>453.55599999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>294.77499999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>968.96100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>580.50300000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>475.62700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E6C-4C2F-A890-06F6D401ACCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1690327503"/>
+        <c:axId val="1680090831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1690327503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Test Cases</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1680090831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1680090831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1690327503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG FPS for the first 5000 Frames without visualization</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$16:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Naïve with 5000 boids</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naïve with 50000 boids</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve with 100000 boids</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Uniform with 5000 boids</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Uniform with 50000 boids</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Uniform with 100000 boids </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Coherent with 5000 boids</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Coherent with 50000 boids</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Coherent with 100000 boids</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>950.19899999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.901200000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.485099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1369.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>638.55200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>367.81700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1331.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>930.18600000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>691.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E6C-4C2F-A890-06F6D401ACCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1690327503"/>
+        <c:axId val="1680090831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1690327503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Test Cases</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1680090831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1680090831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1690327503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>AVG FPS for the first 5000 Frames for different block size without visualization with 50000 boids</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$30:$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Naïve with block size 16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naïve with block size 32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve with block size 64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Naïve with block size 128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Naïve with block size 256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Naïve with block size 512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Uniform with block size 16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Uniform with block size 32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Uniform with block size 64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Uniform with block size 128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Uniform with block size 256</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Uniform with block size 512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Coherent with block size 16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Coherent with block size 32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Coherent with block size 64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Coherent with block size 128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Coherent with block size 256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Coherent with block size 512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>24.932500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.8919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.183900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.645299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.291800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.171799999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>645.803</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>654.721</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>646.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>649.90700000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>663.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>578.39700000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>835.42100000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>900.35900000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>858.84900000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>944.91700000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>780.05499999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>897.27700000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E6C-4C2F-A890-06F6D401ACCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1690327503"/>
+        <c:axId val="1680090831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1690327503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Test Cases</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1680090831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1680090831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1690327503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>339089</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BDC580-C8BC-4A3B-BDF5-CB67DF3AA758}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>315277</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>107632</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5276FA-7213-4155-A07C-3B6F48F1D8F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>324802</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>145732</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A219413A-1101-43D8-8BAA-3AE26D698AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,12 +3600,516 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,8 +4423,19 @@
         <v>897.27700000000004</v>
       </c>
     </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel_data/AVG FPS for different boids.xlsx
+++ b/excel_data/AVG FPS for different boids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JiaruiYan\MasterDegreeProjects\CIS565\Proj1\Project1-CUDA-Flocking\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE65C84-14D9-4A92-B23C-546C6892043E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089E6352-A946-4CFA-8DB9-0DDA908FEA55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="1560" windowWidth="11460" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2475" yWindow="4125" windowWidth="23505" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>AVG FPS for the first 5000 Frames with visualization</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>Uniform 50000 boids with grid width that is equal to 2 x searching radius</t>
+  </si>
+  <si>
+    <t>Uniform 50000 boids FPS with grid optimization:</t>
+  </si>
+  <si>
+    <t>Uniform 50000 boids FPS without grid optimization:</t>
+  </si>
+  <si>
+    <t>Coherent 50000 boids FPS with grid optimization:</t>
+  </si>
+  <si>
+    <t>Coherent 50000 boids FPS without grid optimization:</t>
   </si>
 </sst>
 </file>
@@ -1597,6 +1609,424 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Grid Optimization experiments</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$56:$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Uniform 50000 boids FPS with grid optimization:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Uniform 50000 boids FPS without grid optimization:</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Coherent 50000 boids FPS with grid optimization:</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Coherent 50000 boids FPS without grid optimization:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$56:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>670.75599999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>636.70600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>964.05799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960.51900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9FB-43B0-A997-5DACDA59BA3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1672398351"/>
+        <c:axId val="1671617679"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1672398351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Test Cases</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1671617679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1671617679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1672398351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1717,6 +2147,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2724,6 +3194,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3331,6 +4304,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>353377</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>2857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{025BBBB5-7873-4E04-A553-08CE2ED37503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4106,10 +5117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="P110" sqref="P110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4427,10 +5438,48 @@
       <c r="A52" t="s">
         <v>31</v>
       </c>
+      <c r="B52">
+        <v>941.553</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>32</v>
+      </c>
+      <c r="B53">
+        <v>650.39499999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56">
+        <v>670.75599999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57">
+        <v>636.70600000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59">
+        <v>964.05799999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60">
+        <v>960.51900000000001</v>
       </c>
     </row>
   </sheetData>
